--- a/1.Pruebas-Manuales/inventario-pruebas-exploratorias.xlsx
+++ b/1.Pruebas-Manuales/inventario-pruebas-exploratorias.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbajonero/Documents/U/Maestria/Ciclo-2/PruebasAutomatizadas/EntregaFinal-Grupo10/1.Pruebas-Manuales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7BB795-5DA5-AD45-BDC3-6D680A02EDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FC36F0-C2C8-F147-BE1C-EAF03210FCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34680" yWindow="-860" windowWidth="28800" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="12120" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios PE" sheetId="1" r:id="rId1"/>
     <sheet name="Lists" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Escenarios PE'!$A$1:$J$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Escenarios PE'!$A$1:$J$55</definedName>
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="189">
   <si>
     <t>PRUEBAS EXPLORATORIAS</t>
   </si>
@@ -364,13 +364,265 @@
   </si>
   <si>
     <t>Mix</t>
+  </si>
+  <si>
+    <t>PE021</t>
+  </si>
+  <si>
+    <t>PE022</t>
+  </si>
+  <si>
+    <t>PE023</t>
+  </si>
+  <si>
+    <t>PE024</t>
+  </si>
+  <si>
+    <t>PE025</t>
+  </si>
+  <si>
+    <t>PE026</t>
+  </si>
+  <si>
+    <t>PE027</t>
+  </si>
+  <si>
+    <t>PE028</t>
+  </si>
+  <si>
+    <t>PE029</t>
+  </si>
+  <si>
+    <t>PE030</t>
+  </si>
+  <si>
+    <t>PE031</t>
+  </si>
+  <si>
+    <t>PE032</t>
+  </si>
+  <si>
+    <t>PE033</t>
+  </si>
+  <si>
+    <t>PE034</t>
+  </si>
+  <si>
+    <t>PE035</t>
+  </si>
+  <si>
+    <t>PE036</t>
+  </si>
+  <si>
+    <t>PE037</t>
+  </si>
+  <si>
+    <t>PE038</t>
+  </si>
+  <si>
+    <t>PE039</t>
+  </si>
+  <si>
+    <t>Ivan Rodriguez</t>
+  </si>
+  <si>
+    <t>Ver sitio</t>
+  </si>
+  <si>
+    <t>Visualizar el sitio desde el admin</t>
+  </si>
+  <si>
+    <t>Acceder al recurso 'help' de la barra de navegación del sitio desde el admin</t>
+  </si>
+  <si>
+    <t>Video PR001</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Video PR002</t>
+  </si>
+  <si>
+    <t>IN001</t>
+  </si>
+  <si>
+    <t>Crear post</t>
+  </si>
+  <si>
+    <t>Contabilizar los caracteres especiales cuando se crea un nuevo post</t>
+  </si>
+  <si>
+    <t>Video PR004</t>
+  </si>
+  <si>
+    <t>IN002</t>
+  </si>
+  <si>
+    <t>Actualizar post</t>
+  </si>
+  <si>
+    <t>Actualizar un post y hacerlo disponible inmediatamente</t>
+  </si>
+  <si>
+    <t>Video PR005</t>
+  </si>
+  <si>
+    <t>Validar la url al actualizar un post</t>
+  </si>
+  <si>
+    <t>Video PR006</t>
+  </si>
+  <si>
+    <t>IN003</t>
+  </si>
+  <si>
+    <t>Crear usuario</t>
+  </si>
+  <si>
+    <t>Crear un usuario y habilitarlo inmediatamente</t>
+  </si>
+  <si>
+    <t>Video PR007</t>
+  </si>
+  <si>
+    <t>Crear un usuario con una imagen invalida</t>
+  </si>
+  <si>
+    <t>Video PR008</t>
+  </si>
+  <si>
+    <t>IN004</t>
+  </si>
+  <si>
+    <t>Invitar usuario colaborador</t>
+  </si>
+  <si>
+    <t>Invitar a un usuario colaborador</t>
+  </si>
+  <si>
+    <t>Video PR009</t>
+  </si>
+  <si>
+    <t>IN005</t>
+  </si>
+  <si>
+    <t>Reenviar invitacion</t>
+  </si>
+  <si>
+    <t>Reenviar una invitacion a un usuario colaborador</t>
+  </si>
+  <si>
+    <t>Video PR010</t>
+  </si>
+  <si>
+    <t>IN011</t>
+  </si>
+  <si>
+    <t>Camilo Tafur</t>
+  </si>
+  <si>
+    <t>Crear etiqueta</t>
+  </si>
+  <si>
+    <t>Crear etiqueta con nombre corto</t>
+  </si>
+  <si>
+    <t>Video PR011</t>
+  </si>
+  <si>
+    <t>Crear etiqueta con nombre largo</t>
+  </si>
+  <si>
+    <t>Video PR012</t>
+  </si>
+  <si>
+    <t>IN006</t>
+  </si>
+  <si>
+    <t>Recuperar contraseña</t>
+  </si>
+  <si>
+    <t>Recuperar contraseña desde administración de perfil</t>
+  </si>
+  <si>
+    <t>Video PR013</t>
+  </si>
+  <si>
+    <t>Recuperar contraseña desde inicio de sesión</t>
+  </si>
+  <si>
+    <t>Video PR014</t>
+  </si>
+  <si>
+    <t>IN007</t>
+  </si>
+  <si>
+    <t>Cambiar imagen de perfil</t>
+  </si>
+  <si>
+    <t>Video PR015</t>
+  </si>
+  <si>
+    <t>Cambiar imagen de portada</t>
+  </si>
+  <si>
+    <t>Video PR016</t>
+  </si>
+  <si>
+    <t>IN008</t>
+  </si>
+  <si>
+    <t>Revocar invitación</t>
+  </si>
+  <si>
+    <t>Revocar invitación de usuario colaborador</t>
+  </si>
+  <si>
+    <t>Video PR017</t>
+  </si>
+  <si>
+    <t>Revocar invitación de usuario después de haber re-enviado la invitación</t>
+  </si>
+  <si>
+    <t>Video PR018</t>
+  </si>
+  <si>
+    <t>IN009</t>
+  </si>
+  <si>
+    <t>Crear página</t>
+  </si>
+  <si>
+    <t>Crear página y hacerla disponible inmediatamente</t>
+  </si>
+  <si>
+    <t>Video PR019</t>
+  </si>
+  <si>
+    <t>Crear página y programar su publicación</t>
+  </si>
+  <si>
+    <t>Video PR020</t>
+  </si>
+  <si>
+    <t>IN010</t>
+  </si>
+  <si>
+    <t>PE040</t>
+  </si>
+  <si>
+    <t>Crear un post y hacerlo disponible inmediatamente</t>
+  </si>
+  <si>
+    <t>Video PR003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -408,6 +660,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -497,11 +760,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -546,8 +810,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -570,13 +838,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1923676</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>373530</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>279455</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -882,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J44"/>
+  <dimension ref="B1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1614,176 +1882,602 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="B34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="B36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="B37" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="B39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="2:10" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="9" t="s">
+      <c r="B43" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J44" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J45" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J46" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="J48" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B50:J50"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:J5"/>
@@ -1811,10 +2505,30 @@
     <hyperlink ref="I11" r:id="rId18" xr:uid="{81D6BAFB-15A9-40A5-8526-A57C7C7B3724}"/>
     <hyperlink ref="I28" r:id="rId19" xr:uid="{E2A56A82-5773-4D38-8227-A89D7C6902AF}"/>
     <hyperlink ref="I10" r:id="rId20" xr:uid="{B038B97E-6ADE-4915-A9E7-878A283C96CE}"/>
+    <hyperlink ref="I30" r:id="rId21" display="https://uniandes-my.sharepoint.com/:v:/g/personal/ie_rodriguez_uniandes_edu_co/ERYLsJufQIVJrw-IZ2WY7ZoB7UnCQM4vlorm562uQ8pywg?e=fsX8yi" xr:uid="{E7EFD390-EAD2-DD41-A26E-D20F4C15E2B9}"/>
+    <hyperlink ref="I31" r:id="rId22" display="https://uniandes-my.sharepoint.com/:v:/g/personal/ie_rodriguez_uniandes_edu_co/EdWoq_4vZMtGqDrWeyHYrV0B5KPZNavK-YaNAbkLHP8heg?e=uw4j5b" xr:uid="{4E8F2F43-4843-D745-9B20-239DF2331BAC}"/>
+    <hyperlink ref="I33" r:id="rId23" display="https://uniandes-my.sharepoint.com/:v:/g/personal/ie_rodriguez_uniandes_edu_co/EQ-Q38cd-KdGjoj1Xg620PcBNZKJceGet2lQTZ7d5PP_XA?e=TMgx1l" xr:uid="{1CEA105C-98B1-E84A-9D7E-70066552C7D8}"/>
+    <hyperlink ref="I34" r:id="rId24" display="https://uniandes-my.sharepoint.com/:v:/g/personal/ie_rodriguez_uniandes_edu_co/EfiWOXwRKDBMtz9fX96HyW0BAiK5AZCqfEjslN1FaPIy0Q?e=4lcvBu" xr:uid="{CED4598B-EDF8-A24C-8C67-0BF2C290B67E}"/>
+    <hyperlink ref="I35" r:id="rId25" display="https://uniandes-my.sharepoint.com/:v:/g/personal/ie_rodriguez_uniandes_edu_co/EXjpZigeyZ9ClhM1tins1w4BgfpDpNjygwOMLVzSVSHIOg?e=HlDoUu" xr:uid="{96388EB6-F2A3-2940-929F-4CA920280DD7}"/>
+    <hyperlink ref="I36" r:id="rId26" display="https://uniandes-my.sharepoint.com/:v:/g/personal/ie_rodriguez_uniandes_edu_co/EWg4Bmeybc5AtDtlxH1dBWEBV0ftbl4evffEXxtXgW4GhA?e=dH4uqy" xr:uid="{3395FAE2-4E06-EB47-8D32-7732AC287CEB}"/>
+    <hyperlink ref="I37" r:id="rId27" display="https://uniandes-my.sharepoint.com/:v:/g/personal/ie_rodriguez_uniandes_edu_co/ESasMc_8EqtImhuxGAd7NHcB-uAdpeD92JBKAx6Vr7le8A?e=1iC0Cs" xr:uid="{732A6BF4-81B6-CF47-A000-74CF029B332D}"/>
+    <hyperlink ref="I38" r:id="rId28" display="https://uniandes-my.sharepoint.com/:v:/g/personal/ie_rodriguez_uniandes_edu_co/ETjPnbIS56hMi0L2xfF_s7MBavVv0s8qOwmkjOYuO8mRAw?e=EFwNo1" xr:uid="{6546FCBF-2444-DC49-B65F-80AABB207891}"/>
+    <hyperlink ref="I39" r:id="rId29" display="https://uniandes-my.sharepoint.com/:v:/g/personal/ie_rodriguez_uniandes_edu_co/EaPJpHIyzgpKnFKtpcVvfYUB7lfRew2bTwU2XIgSPkWfwg?e=H7tFG1" xr:uid="{0FF5919C-1B51-7145-9D11-0702B10CD1DF}"/>
+    <hyperlink ref="I40" r:id="rId30" display="https://uniandes-my.sharepoint.com/:v:/g/personal/dc_tafur10_uniandes_edu_co/EY9Y3szCHbBKk_8XGdrsrxsBCc6NUOphqfWGGyg0GV6g0g?e=Sofbdu" xr:uid="{7B265BF9-9262-BC49-ABE3-52C3ED0C38A2}"/>
+    <hyperlink ref="I41" r:id="rId31" display="https://uniandes-my.sharepoint.com/:v:/g/personal/dc_tafur10_uniandes_edu_co/EZDUzHokDihMqietNQEnE0gBGJyPMXZeeAXz7MOdIQ_RNA?e=yrZmO8" xr:uid="{9846620A-C618-F04B-B8AE-AB05BD2A21F2}"/>
+    <hyperlink ref="I42" r:id="rId32" display="https://uniandes-my.sharepoint.com/:v:/g/personal/dc_tafur10_uniandes_edu_co/EaDLDJwxBMdJjCzcstNPy1UBGcPyilIuhGoUkhqdje5VYA?e=crUdDp" xr:uid="{EEA71388-F21D-1A4F-B52B-8F93AB2A74D5}"/>
+    <hyperlink ref="I43" r:id="rId33" display="https://uniandes-my.sharepoint.com/:v:/g/personal/dc_tafur10_uniandes_edu_co/EU9QlIzbf-dNgM2l503mcRgBww699SEhZkodUA86izVvuA?e=mzWtma" xr:uid="{D548CFEF-E842-AF4D-8170-615922C8C7CC}"/>
+    <hyperlink ref="I44" r:id="rId34" display="https://uniandes-my.sharepoint.com/:v:/g/personal/dc_tafur10_uniandes_edu_co/EaEkDjcl-lNHneJbx6fJedIBHFhf7KlmIENi_gmxYx9EGw?e=avUIHs" xr:uid="{1AAF760C-0837-5B47-97A5-A106DCD21F1C}"/>
+    <hyperlink ref="I45" r:id="rId35" display="https://uniandes-my.sharepoint.com/:v:/g/personal/dc_tafur10_uniandes_edu_co/EYSshDA988pOrVmhcEeiACABVUPVEC2ysDr5Zq9Jn8PDfQ?e=NgiCOR" xr:uid="{90527007-D5AD-B042-8C08-B81382D7EB9B}"/>
+    <hyperlink ref="I46" r:id="rId36" display="https://uniandes-my.sharepoint.com/:v:/g/personal/dc_tafur10_uniandes_edu_co/EUfhWSZUHaZPpbnOwPq0Q4gBgcn3j1qsAWO_O0dz1gxIPQ?e=I4O4He" xr:uid="{025AE71B-51D4-E941-A285-6A63CFBD1CEC}"/>
+    <hyperlink ref="I47" r:id="rId37" display="https://uniandes-my.sharepoint.com/:v:/g/personal/dc_tafur10_uniandes_edu_co/Ee4xNv0ZbBRGh894AukoPRYBKj00uFiT3La5EydCvEsFVQ?e=w2X927" xr:uid="{69AD5C32-1AFF-6B49-B5EC-45009F1CA73F}"/>
+    <hyperlink ref="I48" r:id="rId38" display="https://uniandes-my.sharepoint.com/:v:/g/personal/dc_tafur10_uniandes_edu_co/EaEUqywSrXtFqyjBkhU_KhwBMdi1_8L2tBpTKxN8I7r29g?e=hAIqZy" xr:uid="{4CE7D18E-53B8-6B40-9C07-5500C49B5221}"/>
+    <hyperlink ref="I49" r:id="rId39" display="https://uniandes-my.sharepoint.com/:v:/g/personal/dc_tafur10_uniandes_edu_co/Eb4ExWjeZlRCtz8-zVPnkEABC8TB7XeMKo-2Su_ZJaanfw?e=56io38" xr:uid="{302F7CD9-4A50-684C-9E54-1284E043199A}"/>
+    <hyperlink ref="I32" r:id="rId40" display="https://uniandes-my.sharepoint.com/:v:/g/personal/ie_rodriguez_uniandes_edu_co/ESvj_0LDYhxHt6fsHZgskmMBJ5LKeimlfX0zpZWEaslvWw?e=rE27GG" xr:uid="{0DD790B3-B09C-3E4C-8DAD-1108553D1A9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId21"/>
+  <drawing r:id="rId41"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -1822,13 +2536,13 @@
           <x14:formula1>
             <xm:f>Lists!$B$4:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F10:F35</xm:sqref>
+          <xm:sqref>F10:F29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Lists!$B$8:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>G10:G35</xm:sqref>
+          <xm:sqref>G10:G29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
